--- a/OSAMS/fileupload/group2_test.xlsx
+++ b/OSAMS/fileupload/group2_test.xlsx
@@ -915,7 +915,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
